--- a/data/PMI_a.xlsx
+++ b/data/PMI_a.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -638,6 +638,2181 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PMI Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PMI_a!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PMI_a!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.864771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.844573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5433349999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1457290000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.912059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8543179999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7487950000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8999820000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.752184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.152952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9861770000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7769239999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6886639999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8960360000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8617459999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.057553</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.929551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8599209999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.640253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6772279999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.796362</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.601847</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6540710000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.82254</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4768559999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.799874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.608268</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8839680000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6034550000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7887660000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.810017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6346369999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.647194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9270750000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0009950000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.709039</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5517449999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7636499999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0022790000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.828708</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8924380000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.998515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0177399999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7116210000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0865830000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.983115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9892019999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.756942</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8300110000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0111050000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.829126</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.849011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.634601</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.72583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.924966</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2725580000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.97305</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6413660000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8034129999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8844179999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0309430000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8598969999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6567730000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.991263</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7447280000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.781935</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.515938</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8328139999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7637849999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0085120000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.622568</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.836554</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.532986</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9931669999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.718799</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.850204</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8507480000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.992624</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7211689999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.920126</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8620159999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0023390000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.834031</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.670542</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.782886</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.602406</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.738073</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0048430000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9287080000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.889168</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.825367</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0708150000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.974764</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4759420000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7158869999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.959168</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7994159999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.753231</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7277709999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9446509999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Filtered</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PMI_a!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PMI_a!$C$1:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.0404659999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3056649999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.928804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.333656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1956319999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3414280000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3334600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6242719999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8026199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3719540000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.120463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0302560000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.260122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0211890000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3341889999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1778040000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2069269999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1908880000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9260710000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0560010000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2542300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1476419999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5008889999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.930391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8653010000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3462540000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2891309999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.789631</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.784327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3077030000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9958640000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1911200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8648180000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3065889999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3958979999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.350886</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9940690000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1351599999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0820400000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1741570000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8566640000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3292220000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2714059999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.398091</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5268130000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4350830000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2786909999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2110059999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9453940000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2766139999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0736050000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1302300000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5272000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4375439999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.0442680000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9233979999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2717160000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4636290000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.544068</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.91865</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2875679999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4313639999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1892719999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0919129999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9497949999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9369160000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.048835</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1983950000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4270879999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0131290000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0278969999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9678990000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3850850000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.710156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3614540000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.2205370000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1113400000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2433900000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.298724</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1878829999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.405173</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9378629999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.746505</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6646799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7988029999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.84541</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1118480000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.135786</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1461769999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.214391</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.340519</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.651278</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3728259999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9319660000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4312710000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9308829999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1518359999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.0498129999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0241609999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393509224"/>
+        <c:axId val="393511576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393509224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393511576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="393511576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393509224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -903,7 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1043,7 +3218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2454,5 +4631,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>